--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/32.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/32.xlsx
@@ -479,13 +479,13 @@
         <v>-0.02604590118854554</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.137131288334111</v>
+        <v>-2.138063857048859</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05358667777497697</v>
+        <v>0.05794578085169534</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02330297233926695</v>
+        <v>-0.01743919495301112</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.01153893873458688</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.200569747843354</v>
+        <v>-2.201668824902854</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.03468287232603222</v>
+        <v>-0.03222123247467706</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05003640552181108</v>
+        <v>-0.0465135036929143</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.002176974821124476</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.351834345121609</v>
+        <v>-2.35096398831589</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05775617152741125</v>
+        <v>-0.05401857762029915</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02625498841472755</v>
+        <v>-0.01999293282655524</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.00051436570742012</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.509822098019659</v>
+        <v>-2.510860792932161</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0863022889612506</v>
+        <v>-0.0853782591359773</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.02647577969971035</v>
+        <v>-0.02051990429126556</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.003393359120644848</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.678398683786731</v>
+        <v>-2.683859913526333</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05052739166659326</v>
+        <v>-0.0510519234485966</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02045647254088376</v>
+        <v>-0.0146683253185447</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.005445645236846551</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.657189912094171</v>
+        <v>-2.667460366369931</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04053628106078333</v>
+        <v>-0.0413938295322911</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02439534027132272</v>
+        <v>-0.01822172318127888</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.001778333559658515</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.510315523847148</v>
+        <v>-2.522476122300151</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.04097847355142567</v>
+        <v>-0.04724357874298172</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009259472750958366</v>
+        <v>0.01646873515012041</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.01176069455225608</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.091568993939678</v>
+        <v>-2.103678968976511</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.05216868820772229</v>
+        <v>-0.05773360446237157</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02149082200246392</v>
+        <v>0.02963509279908074</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.03964595181561151</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.700650094908838</v>
+        <v>-1.716289070981335</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1222205176149437</v>
+        <v>-0.1267162429232537</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05275718565459962</v>
+        <v>0.05683999466475111</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.08651695879112158</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.197445409209358</v>
+        <v>-1.215430750125305</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3102822392420864</v>
+        <v>-0.3144053030169033</v>
       </c>
       <c r="G11" t="n">
-        <v>0.07155250122926776</v>
+        <v>0.07583902374545312</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.1550740320006469</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6463467023682361</v>
+        <v>-0.6684465681695252</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.6045829939485896</v>
+        <v>-0.6097160863641012</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1418385401763605</v>
+        <v>0.1462317988109767</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2456935196199007</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06240376708423145</v>
+        <v>-0.08610223497927724</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.9388152553617881</v>
+        <v>-0.9426955707072593</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2319884757237839</v>
+        <v>0.2323330809061466</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.3554226001258508</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5439244768777804</v>
+        <v>0.5155393785026026</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.312272125417331</v>
+        <v>-1.316196964972205</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3845320766611802</v>
+        <v>0.3865838498177607</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4770477272310551</v>
       </c>
       <c r="E15" t="n">
-        <v>1.053927338440295</v>
+        <v>1.021376481842928</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.701644265611938</v>
+        <v>-1.69866724278873</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5146434050284596</v>
+        <v>0.5136833898832582</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6094538224319542</v>
       </c>
       <c r="E16" t="n">
-        <v>1.616297989308397</v>
+        <v>1.581553857957444</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.090632155780193</v>
+        <v>-2.085891242359831</v>
       </c>
       <c r="G16" t="n">
-        <v>0.656660994926538</v>
+        <v>0.6521518513633395</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.7510688977942116</v>
       </c>
       <c r="E17" t="n">
-        <v>2.116358533919242</v>
+        <v>2.078436715842431</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.522307784193369</v>
+        <v>-2.51579749088976</v>
       </c>
       <c r="G17" t="n">
-        <v>0.824587405252197</v>
+        <v>0.816971325761644</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8996327682425705</v>
       </c>
       <c r="E18" t="n">
-        <v>2.495220521012126</v>
+        <v>2.459392560618591</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.958488896645681</v>
+        <v>-2.950992971528448</v>
       </c>
       <c r="G18" t="n">
-        <v>1.024283973708986</v>
+        <v>1.01494669806865</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.046999046127805</v>
       </c>
       <c r="E19" t="n">
-        <v>2.747028712090268</v>
+        <v>2.709083107107065</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.356703666811781</v>
+        <v>-3.350545907659333</v>
       </c>
       <c r="G19" t="n">
-        <v>1.185681183190057</v>
+        <v>1.172884437471206</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.186436880388813</v>
       </c>
       <c r="E20" t="n">
-        <v>3.05790772071146</v>
+        <v>3.017596843343828</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.791753986329404</v>
+        <v>-3.783862832613637</v>
       </c>
       <c r="G20" t="n">
-        <v>1.353127585943115</v>
+        <v>1.338072303958266</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.313707805141765</v>
       </c>
       <c r="E21" t="n">
-        <v>3.367002101432488</v>
+        <v>3.331986555380382</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.165621942921075</v>
+        <v>-4.160768194175514</v>
       </c>
       <c r="G21" t="n">
-        <v>1.546358995226374</v>
+        <v>1.53003873775795</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.427489065190416</v>
       </c>
       <c r="E22" t="n">
-        <v>3.538533752878405</v>
+        <v>3.500347839148562</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.450164881680625</v>
+        <v>-4.447138760242939</v>
       </c>
       <c r="G22" t="n">
-        <v>1.626215299512321</v>
+        <v>1.608780107046801</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.525311436876343</v>
       </c>
       <c r="E23" t="n">
-        <v>3.712474590997477</v>
+        <v>3.671198819119228</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.725929232139738</v>
+        <v>-4.723474301415828</v>
       </c>
       <c r="G23" t="n">
-        <v>1.721403179849683</v>
+        <v>1.703698402445041</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.603187131247239</v>
       </c>
       <c r="E24" t="n">
-        <v>3.812905349472165</v>
+        <v>3.77013039257047</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.947668943774879</v>
+        <v>-4.948305091040727</v>
       </c>
       <c r="G24" t="n">
-        <v>1.812908969061518</v>
+        <v>1.791951484687778</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.659108476366292</v>
       </c>
       <c r="E25" t="n">
-        <v>3.879073204009855</v>
+        <v>3.832920506400329</v>
       </c>
       <c r="F25" t="n">
-        <v>-5.080344073706869</v>
+        <v>-5.084175290437861</v>
       </c>
       <c r="G25" t="n">
-        <v>1.844152765648614</v>
+        <v>1.82334410192</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.690654360722631</v>
       </c>
       <c r="E26" t="n">
-        <v>3.882181359778563</v>
+        <v>3.836064037568289</v>
       </c>
       <c r="F26" t="n">
-        <v>-5.18178333602056</v>
+        <v>-5.185764898198371</v>
       </c>
       <c r="G26" t="n">
-        <v>1.838170663651069</v>
+        <v>1.817807851937158</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.698285669980394</v>
       </c>
       <c r="E27" t="n">
-        <v>3.971096815876249</v>
+        <v>3.926894644590963</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.271520355269826</v>
+        <v>-5.279712199879229</v>
       </c>
       <c r="G27" t="n">
-        <v>1.854596437396571</v>
+        <v>1.831407863187286</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.681337246699409</v>
       </c>
       <c r="E28" t="n">
-        <v>3.91527809538162</v>
+        <v>3.872266489257346</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.219220267159356</v>
+        <v>-5.229070791049176</v>
       </c>
       <c r="G28" t="n">
-        <v>1.801404645256696</v>
+        <v>1.779734773532514</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.643135733794849</v>
       </c>
       <c r="E29" t="n">
-        <v>3.875605195041866</v>
+        <v>3.833868323131996</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.219029057027196</v>
+        <v>-5.233431418927586</v>
       </c>
       <c r="G29" t="n">
-        <v>1.772904271873613</v>
+        <v>1.752696380011596</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.588441680594461</v>
       </c>
       <c r="E30" t="n">
-        <v>3.812168565294654</v>
+        <v>3.772927488794037</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.115750273952432</v>
+        <v>-5.129893114604866</v>
       </c>
       <c r="G30" t="n">
-        <v>1.721784990193328</v>
+        <v>1.701195287987667</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.524340058078179</v>
       </c>
       <c r="E31" t="n">
-        <v>3.716839183360285</v>
+        <v>3.679842614950102</v>
       </c>
       <c r="F31" t="n">
-        <v>-5.05041374129715</v>
+        <v>-5.064904846656007</v>
       </c>
       <c r="G31" t="n">
-        <v>1.632359030489204</v>
+        <v>1.610441530970262</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.457980829481705</v>
       </c>
       <c r="E32" t="n">
-        <v>3.554545390484395</v>
+        <v>3.523519945499574</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.906849697523177</v>
+        <v>-4.924354725906184</v>
       </c>
       <c r="G32" t="n">
-        <v>1.574759341618471</v>
+        <v>1.556500146318664</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.3936277509779</v>
       </c>
       <c r="E33" t="n">
-        <v>3.395753762134391</v>
+        <v>3.364300152834494</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.739515215214301</v>
+        <v>-4.757709149001697</v>
       </c>
       <c r="G33" t="n">
-        <v>1.462609567260745</v>
+        <v>1.443012205996153</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.33525969735744</v>
       </c>
       <c r="E34" t="n">
-        <v>3.211566256645952</v>
+        <v>3.183112237234302</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.539375234425517</v>
+        <v>-4.557113252507043</v>
       </c>
       <c r="G34" t="n">
-        <v>1.334540863239895</v>
+        <v>1.316759235829982</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.282827853452796</v>
       </c>
       <c r="E35" t="n">
-        <v>3.049032155023423</v>
+        <v>3.021771140455492</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.389068822530433</v>
+        <v>-4.409727445772567</v>
       </c>
       <c r="G35" t="n">
-        <v>1.267122061394195</v>
+        <v>1.250046722127956</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.237571667309039</v>
       </c>
       <c r="E36" t="n">
-        <v>2.8710085078942</v>
+        <v>2.84845852063347</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.172336559651394</v>
+        <v>-4.190958352793528</v>
       </c>
       <c r="G36" t="n">
-        <v>1.19020435492882</v>
+        <v>1.174969146344331</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.19717959759868</v>
       </c>
       <c r="E37" t="n">
-        <v>2.631377993048009</v>
+        <v>2.612541202867322</v>
       </c>
       <c r="F37" t="n">
-        <v>-4.052025741678441</v>
+        <v>-4.075411625226653</v>
       </c>
       <c r="G37" t="n">
-        <v>1.137044888584813</v>
+        <v>1.124392694066351</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.160861526112513</v>
       </c>
       <c r="E38" t="n">
-        <v>2.408390993628919</v>
+        <v>2.387678087446555</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.891553476903658</v>
+        <v>-3.915777696422061</v>
       </c>
       <c r="G38" t="n">
-        <v>1.060254045620202</v>
+        <v>1.049615809176363</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.125137753514454</v>
       </c>
       <c r="E39" t="n">
-        <v>2.224595057214952</v>
+        <v>2.206803671074211</v>
       </c>
       <c r="F39" t="n">
-        <v>-3.775339191156083</v>
+        <v>-3.800950370293411</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9747077913408733</v>
+        <v>0.9650185914700536</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.087833257590659</v>
       </c>
       <c r="E40" t="n">
-        <v>2.006827758947472</v>
+        <v>1.991793214265632</v>
       </c>
       <c r="F40" t="n">
-        <v>-3.673985622697475</v>
+        <v>-3.699325997054326</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8551920049700611</v>
+        <v>0.8442988216833408</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.046795679047222</v>
       </c>
       <c r="E41" t="n">
-        <v>1.773999689409052</v>
+        <v>1.758880975673821</v>
       </c>
       <c r="F41" t="n">
-        <v>-3.52655254711055</v>
+        <v>-3.553194797151921</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7910997104953449</v>
+        <v>0.782650479360354</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.001113126742818</v>
       </c>
       <c r="E42" t="n">
-        <v>1.538686193112884</v>
+        <v>1.522234192778282</v>
       </c>
       <c r="F42" t="n">
-        <v>-3.462847857225908</v>
+        <v>-3.49238174119574</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7269769199867914</v>
+        <v>0.7192205587405862</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.9516755291390749</v>
       </c>
       <c r="E43" t="n">
-        <v>1.331258270157637</v>
+        <v>1.316978807273611</v>
       </c>
       <c r="F43" t="n">
-        <v>-3.344298490167403</v>
+        <v>-3.37692436700801</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6613964190608099</v>
+        <v>0.6559534869415102</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8992096759787335</v>
       </c>
       <c r="E44" t="n">
-        <v>1.099531717361424</v>
+        <v>1.086715454180917</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.288308991883285</v>
+        <v>-3.324078399891851</v>
       </c>
       <c r="G44" t="n">
-        <v>0.605916814462453</v>
+        <v>0.6006806454525709</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.846025785785559</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9840420173778256</v>
+        <v>0.9748200167453949</v>
       </c>
       <c r="F45" t="n">
-        <v>-3.186838928575417</v>
+        <v>-3.221830077800453</v>
       </c>
       <c r="G45" t="n">
-        <v>0.539967311527039</v>
+        <v>0.5340882861238645</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7922513431353378</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8154392050216529</v>
+        <v>0.8032456708521057</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.105438915056622</v>
+        <v>-3.142546793990312</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4342418316575004</v>
+        <v>0.4289940741547602</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7385575796735219</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6546232499455227</v>
+        <v>0.6415764367492049</v>
       </c>
       <c r="F47" t="n">
-        <v>-3.056382690065437</v>
+        <v>-3.095212984990263</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3792129584392604</v>
+        <v>0.3742506438132382</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6835984032344865</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5169659829655163</v>
+        <v>0.5050908273892316</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.958113795429481</v>
+        <v>-2.994978925933826</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3199622142965703</v>
+        <v>0.315503694149542</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6273490561371897</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4072400333771872</v>
+        <v>0.3946823765636214</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.882986206150363</v>
+        <v>-2.920143183698531</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2566384198745567</v>
+        <v>0.2512546500609016</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5694813903871229</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2640087013323802</v>
+        <v>0.2532667783734934</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.807732363291157</v>
+        <v>-2.843032742299304</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2096220745867559</v>
+        <v>0.2075885990504779</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5110584912657723</v>
       </c>
       <c r="E51" t="n">
-        <v>0.192380226975765</v>
+        <v>0.1804922630652686</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.686391084334838</v>
+        <v>-2.718278347235903</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1491356311529742</v>
+        <v>0.1460939567380317</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.453534222560529</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0878892265559645</v>
+        <v>0.07493756098521949</v>
       </c>
       <c r="F52" t="n">
-        <v>-2.586594643363967</v>
+        <v>-2.617462728814187</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1102537979309623</v>
+        <v>0.105858099613639</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3978373460318815</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.0249357299909215</v>
+        <v>-0.03806671224063044</v>
       </c>
       <c r="F53" t="n">
-        <v>-2.488525497749647</v>
+        <v>-2.518421979561806</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1034659907194331</v>
+        <v>0.1011269449241043</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3449966326530341</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.1029695912947448</v>
+        <v>-0.1134461987592462</v>
       </c>
       <c r="F54" t="n">
-        <v>-2.419749012477506</v>
+        <v>-2.449256974818577</v>
       </c>
       <c r="G54" t="n">
-        <v>0.06636756555623252</v>
+        <v>0.06364061021049196</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.295262939222545</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1064668764552181</v>
+        <v>-0.1133071368449476</v>
       </c>
       <c r="F55" t="n">
-        <v>-2.365422767878879</v>
+        <v>-2.396270725946766</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03732619253287375</v>
+        <v>0.03409666254949278</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.249864739324561</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.1738826286975345</v>
+        <v>-0.1796896834608528</v>
       </c>
       <c r="F56" t="n">
-        <v>-2.326185350902323</v>
+        <v>-2.353792800414647</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008939950322526936</v>
+        <v>-0.01283734344694703</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2086716432347317</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.285222428396539</v>
+        <v>-0.291417392710269</v>
       </c>
       <c r="F57" t="n">
-        <v>-2.263295210081477</v>
+        <v>-2.290451928213685</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0241690597002492</v>
+        <v>-0.02854829015930025</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1721459433412833</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3172999865487496</v>
+        <v>-0.3209460923543495</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.241458220091867</v>
+        <v>-2.266640015072764</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.04989673368683577</v>
+        <v>-0.05449126614477889</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1391517976366164</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3660442371137776</v>
+        <v>-0.3661985470449949</v>
       </c>
       <c r="F59" t="n">
-        <v>-2.191739926206072</v>
+        <v>-2.217102867627963</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08241160496427474</v>
+        <v>-0.08695856360943152</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1092539228044187</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4038373619277943</v>
+        <v>-0.4044051980778468</v>
       </c>
       <c r="F60" t="n">
-        <v>-2.219004600298064</v>
+        <v>-2.245889293808442</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1178217696942367</v>
+        <v>-0.1242125185452029</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.0812820418364576</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4488604864439824</v>
+        <v>-0.4481676165551967</v>
       </c>
       <c r="F61" t="n">
-        <v>-2.169526615158908</v>
+        <v>-2.195070093101116</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.0856777301882606</v>
+        <v>-0.09000511738978806</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.05467063033960247</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4681644758630585</v>
+        <v>-0.4663517916117632</v>
       </c>
       <c r="F62" t="n">
-        <v>-2.121911937687217</v>
+        <v>-2.147816488670061</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1286161458313239</v>
+        <v>-0.1331923806689645</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.02904570578665125</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5199382024294941</v>
+        <v>-0.5216240231800258</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.130419111286499</v>
+        <v>-2.155597856664012</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1723523377195736</v>
+        <v>-0.1754421958679793</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.003954801796239242</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.5730275278956753</v>
+        <v>-0.5740942791593077</v>
       </c>
       <c r="F64" t="n">
-        <v>-2.174971986960915</v>
+        <v>-2.202022578895368</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1629912751728444</v>
+        <v>-0.1685513120620797</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.01984909367951962</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.5968351715918591</v>
+        <v>-0.6002787837327785</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.237493735693004</v>
+        <v>-2.261709416321933</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1882267431732953</v>
+        <v>-0.1896801841459859</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.04228755198093539</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.6523562507962347</v>
+        <v>-0.6548904712081229</v>
       </c>
       <c r="F66" t="n">
-        <v>-2.283503711864171</v>
+        <v>-2.306628244402397</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1957556040070733</v>
+        <v>-0.1981025787711999</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.06271640252917281</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.6925878384758901</v>
+        <v>-0.696311404207437</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.269842708546368</v>
+        <v>-2.291790704099147</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.200348916623663</v>
+        <v>-0.1992101947201743</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.08122407381701642</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.7660485145454564</v>
+        <v>-0.7731729979705505</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.319984897302502</v>
+        <v>-2.338286787049682</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2253812810387568</v>
+        <v>-0.2259600957609907</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.0980695965441086</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.7576120917446774</v>
+        <v>-0.761401528909313</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.379523524004618</v>
+        <v>-2.400646906802433</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.214162400110653</v>
+        <v>-0.2111737887945875</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1141282624956398</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.769661684634512</v>
+        <v>-0.7740110289804023</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.392977764213003</v>
+        <v>-2.412581224684363</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2038120462262384</v>
+        <v>-0.2034363350893616</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1309205679977002</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.8027614698409523</v>
+        <v>-0.8069619935417162</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.429491885367879</v>
+        <v>-2.448406135474513</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2228330324513034</v>
+        <v>-0.2211923458308511</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1501650587980733</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.78803127557681</v>
+        <v>-0.7891529197013496</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.504674977428582</v>
+        <v>-2.519507028445741</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2482783131645556</v>
+        <v>-0.2487522215303888</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1742082626226147</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.7731827567013785</v>
+        <v>-0.7738920944484365</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.50043663864586</v>
+        <v>-2.512591137892095</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2822722420831086</v>
+        <v>-0.2802820709148797</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2042941619322492</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.7484144879393166</v>
+        <v>-0.753005970793876</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.520376165410107</v>
+        <v>-2.531384623704733</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2831633361918375</v>
+        <v>-0.2843752485765359</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2405505084638569</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6882177568269903</v>
+        <v>-0.6907745443039182</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.534065225079041</v>
+        <v>-2.544019740444246</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2643088583115248</v>
+        <v>-0.2614946843090093</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2796950983308066</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5907512128412972</v>
+        <v>-0.5970315660497719</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.525568420131263</v>
+        <v>-2.53583582480364</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2433660120340267</v>
+        <v>-0.242031505593302</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3136813842970839</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5539553083337635</v>
+        <v>-0.5571573918866909</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.524581568476285</v>
+        <v>-2.534517176300511</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.2252672258722049</v>
+        <v>-0.2244176063694948</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3323460113247928</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.393329038588102</v>
+        <v>-0.3961407729079106</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.535994404179595</v>
+        <v>-2.544915103997712</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.25515516879489</v>
+        <v>-0.2552088418144438</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3289335324672669</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3046288844893087</v>
+        <v>-0.3096729284860151</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.533449815116202</v>
+        <v>-2.541547122020709</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2141880167790764</v>
+        <v>-0.2153474759855745</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.305900157265512</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.186668395844204</v>
+        <v>-0.1895795472343225</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.505551433441069</v>
+        <v>-2.516242732983786</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1986393089667381</v>
+        <v>-0.197918382726822</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2736798887808761</v>
       </c>
       <c r="E81" t="n">
-        <v>0.02633786162058074</v>
+        <v>0.02263076374730604</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.487184892102155</v>
+        <v>-2.497297986843314</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2009216321391294</v>
+        <v>-0.2003867317056214</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2408750920581992</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1916763785147978</v>
+        <v>0.186093164639846</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.45020906099498</v>
+        <v>-2.459996458094757</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.146801540729244</v>
+        <v>-0.1484288090948078</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2105670739278949</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3379109599719122</v>
+        <v>0.3325680548435991</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.406824793337214</v>
+        <v>-2.413721166429204</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.105883792288247</v>
+        <v>-0.1067059653605034</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.18346294557405</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5380466713159594</v>
+        <v>0.5339553234163334</v>
       </c>
       <c r="F84" t="n">
-        <v>-2.293948603453481</v>
+        <v>-2.298063738259501</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.09104991150905749</v>
+        <v>-0.09130790795532191</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1590727697212522</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7100400327141745</v>
+        <v>0.705787665755887</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.22684330083563</v>
+        <v>-2.233146221109144</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.05042980435831357</v>
+        <v>-0.05162646872609326</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1366600299414532</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9232201175718324</v>
+        <v>0.91685681515132</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.204599493754628</v>
+        <v>-2.213112766560678</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06808212858475587</v>
+        <v>-0.07128482205835993</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1162610574088778</v>
       </c>
       <c r="E87" t="n">
-        <v>1.044107615544651</v>
+        <v>1.037968154012505</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.091226218519346</v>
+        <v>-2.099011855958035</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.02142563649623643</v>
+        <v>-0.02494060935633549</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.09906279429441202</v>
       </c>
       <c r="E88" t="n">
-        <v>1.203220672091301</v>
+        <v>1.197078770876448</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.937135858745716</v>
+        <v>-1.94683359750601</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03488650982588152</v>
+        <v>0.03117941195260682</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.08712405807422352</v>
       </c>
       <c r="E89" t="n">
-        <v>1.329997564118798</v>
+        <v>1.318623153418124</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.782625263625808</v>
+        <v>-1.788458544978226</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0623402593276651</v>
+        <v>0.06163397118399085</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.08225219576173111</v>
       </c>
       <c r="E90" t="n">
-        <v>1.441215379682453</v>
+        <v>1.43150056314321</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.626648419198996</v>
+        <v>-1.633044657336053</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04426465015155966</v>
+        <v>0.0420213619024803</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08647416083510236</v>
       </c>
       <c r="E91" t="n">
-        <v>1.494258351177202</v>
+        <v>1.482877231349083</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.379915378072074</v>
+        <v>-1.386132299530167</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08914383338803525</v>
+        <v>0.08598261452045007</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1004525854595124</v>
       </c>
       <c r="E92" t="n">
-        <v>1.511018971374238</v>
+        <v>1.504228724480002</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.136776599493229</v>
+        <v>-1.139972583839388</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1072615270908363</v>
+        <v>0.1041875268800261</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1236040080137418</v>
       </c>
       <c r="E93" t="n">
-        <v>1.561821704223291</v>
+        <v>1.555514514505039</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.9434116175817615</v>
+        <v>-0.943538481082525</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0806195820098044</v>
+        <v>0.07631293211128636</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1524640445671077</v>
       </c>
       <c r="E94" t="n">
-        <v>1.596781137573136</v>
+        <v>1.588478287400565</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.7195280347678519</v>
+        <v>-0.7221964377286246</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0811843685564731</v>
+        <v>0.07687405913389457</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1820245928745746</v>
       </c>
       <c r="E95" t="n">
-        <v>1.567661694703154</v>
+        <v>1.561191046243534</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5124788725528654</v>
+        <v>-0.5120683959374139</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02768700615754744</v>
+        <v>0.02502836192760266</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2063339744207482</v>
       </c>
       <c r="E96" t="n">
-        <v>1.481118220117342</v>
+        <v>1.474141337496021</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3298301969318617</v>
+        <v>-0.3301217390153472</v>
       </c>
       <c r="G96" t="n">
-        <v>0.007340662301908975</v>
+        <v>0.004255683518917299</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2211158549882065</v>
       </c>
       <c r="E97" t="n">
-        <v>1.427328705714254</v>
+        <v>1.421363071574981</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1705433129923389</v>
+        <v>-0.1709184142085389</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.02082791423302333</v>
+        <v>-0.02238870124482161</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.225516428351082</v>
       </c>
       <c r="E98" t="n">
-        <v>1.346373934289484</v>
+        <v>1.341065794639746</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.07115917839894982</v>
+        <v>-0.06945323026608551</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.08675180050001392</v>
+        <v>-0.08685487709438434</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2221459960033221</v>
       </c>
       <c r="E99" t="n">
-        <v>1.266402354995632</v>
+        <v>1.266748789940025</v>
       </c>
       <c r="F99" t="n">
-        <v>0.008795933036629842</v>
+        <v>0.00692774600375054</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09637207933436104</v>
+        <v>-0.09570238643129167</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2158388562577223</v>
       </c>
       <c r="E100" t="n">
-        <v>1.13804332873265</v>
+        <v>1.142686654844733</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0752181244965236</v>
+        <v>0.07390618512083852</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.09353228866342209</v>
+        <v>-0.09133840398915932</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2105505872093912</v>
       </c>
       <c r="E101" t="n">
-        <v>1.031634737705153</v>
+        <v>1.035082009370133</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1135650572850275</v>
+        <v>0.1102971022990114</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1433451202541127</v>
+        <v>-0.1430920031732623</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2118738150392933</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9098640745924035</v>
+        <v>0.9136553415190695</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1434706879073383</v>
+        <v>0.1416281175428824</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1462812783919779</v>
+        <v>-0.1451010818824704</v>
       </c>
     </row>
   </sheetData>
